--- a/results/recipes_model.xlsx
+++ b/results/recipes_model.xlsx
@@ -8,16 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honor\Desktop\PycharmProjects\lab4_excel\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16AC24F7-0E37-4D82-B15E-79B46F2AD591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4D71F6-D86C-47C1-A7E9-78879EDD659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9FC5934A-0C05-4B45-9A5A-D2E03DA7C093}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAD47A61-8600-4350-BE42-48AF38C4994D}"/>
   </bookViews>
   <sheets>
     <sheet name="Модель" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
   <si>
     <t>recipe</t>
   </si>
@@ -52,10 +50,10 @@
     <t>Y</t>
   </si>
   <si>
-    <t>Р РµС†РµРїС‚</t>
-  </si>
-  <si>
-    <t>РќР°Р·РІР°РЅРёРµ СЂРµС†РµРїС‚Р°</t>
+    <t>Рецепт</t>
+  </si>
+  <si>
+    <t>Название рецепта</t>
   </si>
   <si>
     <t>id</t>
@@ -67,7 +65,7 @@
     <t>N</t>
   </si>
   <si>
-    <t>ID СЂРµС†РµРїС‚Р°</t>
+    <t>ID рецепта</t>
   </si>
   <si>
     <t>PK</t>
@@ -79,13 +77,13 @@
     <t>int</t>
   </si>
   <si>
-    <t>Р”Р»РёС‚РµР»СЊРЅРѕСЃС‚СЊ РІС‹РїРѕР»РЅРµРЅРёСЏ РІ РјРёРЅСѓС‚Р°С…</t>
+    <t>Длительность выполнения в минутах</t>
   </si>
   <si>
     <t>contributor_id</t>
   </si>
   <si>
-    <t>ID Р°РІС‚РѕСЂР° СЂРµС†РµРїС‚Р°</t>
+    <t>ID автора рецепта</t>
   </si>
   <si>
     <t>FK</t>
@@ -100,13 +98,13 @@
     <t>timestamp</t>
   </si>
   <si>
-    <t>Р”Р°С‚Р° РґРѕР±Р°РІР»РµРЅРёСЏ</t>
+    <t>Дата добавления</t>
   </si>
   <si>
     <t>n_steps</t>
   </si>
   <si>
-    <t>РљРѕР»-РІРѕ С€Р°РіРѕРІ СЂРµС†РµРїС‚Р°</t>
+    <t>Кол-во шагов рецепта</t>
   </si>
   <si>
     <t>description</t>
@@ -115,28 +113,28 @@
     <t>text</t>
   </si>
   <si>
-    <t>РћРїРёСЃР°РЅРёРµ СЂРµС†РµРїС‚Р°</t>
+    <t>Описание рецепта</t>
   </si>
   <si>
     <t>n_ingredients</t>
   </si>
   <si>
-    <t>РљРѕР»-РІРѕ РёРЅРіСЂРµРґРёРµРЅС‚РѕРІ РІ СЂРµС†РµРїС‚Р°</t>
+    <t>Кол-во ингредиентов в рецепта</t>
   </si>
   <si>
     <t>review</t>
   </si>
   <si>
-    <t>РћС‚Р·С‹РІ</t>
-  </si>
-  <si>
-    <t>ID РѕС‚Р·С‹РІР°</t>
+    <t>Отзыв</t>
+  </si>
+  <si>
+    <t>ID отзыва</t>
   </si>
   <si>
     <t>user_id</t>
   </si>
   <si>
-    <t>ID Р°РІС‚РѕСЂР° РѕС‚Р·С‹РІР°</t>
+    <t>ID автора отзыва</t>
   </si>
   <si>
     <t>recipe_id</t>
@@ -145,25 +143,25 @@
     <t>date</t>
   </si>
   <si>
-    <t>Р”Р°С‚Р° РґРѕР±Р°РІР»РµРЅРёСЏ РѕС‚Р·С‹РІР°</t>
+    <t>Дата добавления отзыва</t>
   </si>
   <si>
     <t>rating</t>
   </si>
   <si>
-    <t>Р РµР№С‚РёРЅРі РѕС‚Р·С‹РІР°</t>
+    <t>Рейтинг отзыва</t>
   </si>
   <si>
     <t>test</t>
   </si>
   <si>
-    <t>РўРµРєСЃС‚РѕРІРѕРµ РѕРїРёСЃР°РЅРёРµ РѕС‚Р·С‹РІР°</t>
-  </si>
-  <si>
-    <t>РџРѕР»СЊР·РѕРІР°С‚РµР»СЊ</t>
-  </si>
-  <si>
-    <t>ID РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
+    <t>Текстовое описание отзыва</t>
+  </si>
+  <si>
+    <t>Пользователь</t>
+  </si>
+  <si>
+    <t>ID пользователя</t>
   </si>
   <si>
     <t>login</t>
@@ -172,58 +170,13 @@
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>Р›РѕРіРёРЅ РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
+    <t>Логин пользователя</t>
   </si>
   <si>
     <t>registered</t>
   </si>
   <si>
-    <t>Р”Р°С‚Р° СЂРµРіРёСЃС‚СЂР°С†РёРё РїРѕР»СЊР·РѕРІР°С‚РµР»СЏ</t>
-  </si>
-  <si>
-    <t>name VARCHAR(100)</t>
-  </si>
-  <si>
-    <t>id SERIAL</t>
-  </si>
-  <si>
-    <t>minutes INT</t>
-  </si>
-  <si>
-    <t>contributor_id INT</t>
-  </si>
-  <si>
-    <t>submitted TIMESTAMP</t>
-  </si>
-  <si>
-    <t>n_steps INT</t>
-  </si>
-  <si>
-    <t>description TEXT</t>
-  </si>
-  <si>
-    <t>n_ingredients INT</t>
-  </si>
-  <si>
-    <t>user_id INT</t>
-  </si>
-  <si>
-    <t>recipe_id INT</t>
-  </si>
-  <si>
-    <t>date TIMESTAMP</t>
-  </si>
-  <si>
-    <t>rating INT</t>
-  </si>
-  <si>
-    <t>review TEST</t>
-  </si>
-  <si>
-    <t>login VARCHAR(20)</t>
-  </si>
-  <si>
-    <t>registered TIMESTAMP</t>
+    <t>Дата регистрации пользователя</t>
   </si>
 </sst>
 </file>
@@ -575,14 +528,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2E3306A-9A5D-475D-889B-4EA52274FF5F}">
-  <dimension ref="A2:J18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6100E9C6-5495-4A1F-A428-1C8C121EFB29}">
+  <dimension ref="A2:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -601,11 +554,8 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-      <c r="J2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -627,11 +577,8 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -650,11 +597,8 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="J4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -682,11 +626,8 @@
       <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="J5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -705,11 +646,8 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -728,11 +666,8 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-      <c r="J7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -751,11 +686,8 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-      <c r="J8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -774,11 +706,8 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-      <c r="J9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -800,11 +729,8 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-      <c r="J10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -826,11 +752,8 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="J11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -858,11 +781,8 @@
       <c r="I12" t="s">
         <v>6</v>
       </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -881,11 +801,8 @@
       <c r="F13" t="s">
         <v>35</v>
       </c>
-      <c r="J13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -904,11 +821,8 @@
       <c r="F14" t="s">
         <v>37</v>
       </c>
-      <c r="J14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -927,11 +841,8 @@
       <c r="F15" t="s">
         <v>39</v>
       </c>
-      <c r="J15" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -953,11 +864,8 @@
       <c r="G16" t="s">
         <v>10</v>
       </c>
-      <c r="J16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -976,11 +884,8 @@
       <c r="F17" t="s">
         <v>44</v>
       </c>
-      <c r="J17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -999,12 +904,8 @@
       <c r="F18" t="s">
         <v>46</v>
       </c>
-      <c r="J18" t="s">
-        <v>61</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/results/recipes_model.xlsx
+++ b/results/recipes_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honor\Desktop\PycharmProjects\lab4_excel\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A4D71F6-D86C-47C1-A7E9-78879EDD659A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A8454-A897-454D-9E70-3C6FDD7A0CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAD47A61-8600-4350-BE42-48AF38C4994D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DAD47A61-8600-4350-BE42-48AF38C4994D}"/>
   </bookViews>
   <sheets>
     <sheet name="Модель" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>recipe</t>
   </si>
@@ -177,6 +177,51 @@
   </si>
   <si>
     <t>Дата регистрации пользователя</t>
+  </si>
+  <si>
+    <t>name VARCHAR(100)</t>
+  </si>
+  <si>
+    <t>id SERIAL</t>
+  </si>
+  <si>
+    <t>minutes INT</t>
+  </si>
+  <si>
+    <t>contributor_id INT</t>
+  </si>
+  <si>
+    <t>submitted TIMESTAMP</t>
+  </si>
+  <si>
+    <t>n_steps INT</t>
+  </si>
+  <si>
+    <t>description TEXT</t>
+  </si>
+  <si>
+    <t>n_ingredients INT</t>
+  </si>
+  <si>
+    <t>user_id INT</t>
+  </si>
+  <si>
+    <t>recipe_id INT</t>
+  </si>
+  <si>
+    <t>date TIMESTAMP</t>
+  </si>
+  <si>
+    <t>rating INT</t>
+  </si>
+  <si>
+    <t>review TEST</t>
+  </si>
+  <si>
+    <t>login VARCHAR(20)</t>
+  </si>
+  <si>
+    <t>registered TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -529,13 +574,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6100E9C6-5495-4A1F-A428-1C8C121EFB29}">
-  <dimension ref="A2:I18"/>
+  <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -554,8 +599,11 @@
       <c r="F2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -577,8 +625,11 @@
       <c r="G3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -597,8 +648,11 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -626,8 +680,11 @@
       <c r="I5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -646,8 +703,11 @@
       <c r="F6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -666,8 +726,11 @@
       <c r="F7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -686,8 +749,11 @@
       <c r="F8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -706,8 +772,11 @@
       <c r="F9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -729,8 +798,11 @@
       <c r="G10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>28</v>
       </c>
@@ -752,8 +824,11 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -781,8 +856,11 @@
       <c r="I12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>28</v>
       </c>
@@ -801,8 +879,11 @@
       <c r="F13" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -821,8 +902,11 @@
       <c r="F14" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -841,8 +925,11 @@
       <c r="F15" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -864,8 +951,11 @@
       <c r="G16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -884,8 +974,11 @@
       <c r="F17" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -903,6 +996,9 @@
       </c>
       <c r="F18" t="s">
         <v>46</v>
+      </c>
+      <c r="J18" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/results/recipes_model.xlsx
+++ b/results/recipes_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Honor\Desktop\PycharmProjects\lab4_excel\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A8454-A897-454D-9E70-3C6FDD7A0CEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898DD9ED-E7DC-47ED-B092-14669B6C385E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DAD47A61-8600-4350-BE42-48AF38C4994D}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{294701E4-8252-45AF-A5B8-13724DE6361C}"/>
   </bookViews>
   <sheets>
     <sheet name="Модель" sheetId="2" r:id="rId1"/>
@@ -573,7 +573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6100E9C6-5495-4A1F-A428-1C8C121EFB29}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B454C963-E91F-4B08-87AA-2428027D6DFC}">
   <dimension ref="A2:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
